--- a/Organizador de Declaraçao de IR.xlsx
+++ b/Organizador de Declaraçao de IR.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c863588452485ee4/Cursos_DIO/Excel_IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="8_{BD15A846-3917-4812-A56E-CF2A9F0CAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2196AB-C6F0-438E-BD5B-7B59A80D1BF1}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="8_{BD15A846-3917-4812-A56E-CF2A9F0CAD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2D82AB-1FFD-4B5A-BF1F-1EFFFC8F14A8}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B2E6FA8A-EE06-4227-B5E1-F96E2AA817F6}"/>
+    <workbookView xWindow="345" yWindow="1650" windowWidth="21600" windowHeight="11235" xr2:uid="{B2E6FA8A-EE06-4227-B5E1-F96E2AA817F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Titular" sheetId="1" r:id="rId1"/>
     <sheet name="Informes" sheetId="3" r:id="rId2"/>
     <sheet name="Notas" sheetId="4" r:id="rId3"/>
-    <sheet name="Bancos" sheetId="5" r:id="rId4"/>
+    <sheet name="Bancos" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -282,11 +282,11 @@
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="166" formatCode="00000\-000"/>
-    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;)&quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="169" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="174" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;)&quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,13 +643,13 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,55 +658,44 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,13 +704,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,12 +723,24 @@
     <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,10 +750,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1463,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Retângulo 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81609E-E179-4A25-92A8-0E2493ACBBB1}"/>
@@ -1544,7 +1542,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Retângulo 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335E01E3-D21B-4F39-9379-1176DBAD9715}"/>
@@ -1908,10 +1906,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2231,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C831792-326B-43C4-94B2-C502ED3AABA4}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2245,183 +2239,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="18"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="26"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="18"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2455,178 +2429,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="18"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="18"/>
+      <c r="C6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="15">
+      <c r="A7" s="18"/>
+      <c r="C7" s="48">
         <f xml:space="preserve"> SUM(D10,D14,D18)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="18"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="18"/>
       <c r="C16" s="2"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="18"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2654,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D2327-221F-4F25-A15E-61D9CCE286F2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2671,205 +2623,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="38" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="18"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:7" s="41" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="A5" s="18"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="18"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="18"/>
+      <c r="C7" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="54" t="s">
+      <c r="A8" s="18"/>
+      <c r="C8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="18"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="18"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="18"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="18"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="18"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="18"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="18"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="18"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="18"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="A20" s="18"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
